--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Test12345</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +401,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +411,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9033610313</v>
       </c>
@@ -415,6 +424,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
